--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1972376.974375083</v>
+        <v>1970124.894663875</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283195</v>
+        <v>416855.1052283203</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.45713216103701</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>114.4918089738204</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>169.6453578146658</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>158.2598945289029</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292606</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>82.99473116157712</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>238.3262268437764</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247747</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734075887</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>66.23125412673316</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,13 +1063,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,16 +1108,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>115.9418712384121</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>128.2538703177685</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>9.858893720074256</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1309,7 +1309,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>27.00971856836509</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>42.67804628306436</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722591</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819339</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.787132650401</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>160.1763464053452</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710053</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>42.53134576112881</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>121.8000472740355</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533521023</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695349</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.974274198339</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>42.53134576113045</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710101</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505461</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428216</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695349</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833109</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.02919805174573</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890526</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>113.6427030833203</v>
+        <v>252.1376433238387</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.83025205762932</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3715,13 +3715,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>245.8796921214428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.88994825141629</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.6472505928856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,13 +4325,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="3">
@@ -4398,22 +4398,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>679.1346335501037</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
         <v>315.6219318279954</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1735.608663915319</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1480.924175709432</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1309.565228421891</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X4" t="n">
-        <v>1081.575677523874</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y4" t="n">
-        <v>860.7830983803434</v>
+        <v>492.3762059419881</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>934.5673701373257</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>934.5673701373257</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609168</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136263</v>
+        <v>3241.772759829801</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520485</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="U5" t="n">
-        <v>2768.603843052024</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.540955708454</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="W5" t="n">
-        <v>2084.772300438339</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X5" t="n">
-        <v>1711.306542177259</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y5" t="n">
-        <v>1321.167210201447</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158125</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992582</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410636</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886739</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533339</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791188</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279951</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764911</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760399</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581904</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088491</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915318</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484844</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1513.842048484844</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1513.842048484844</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1513.842048484844</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1295.236214140703</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>926.2736972002915</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="D8" t="n">
-        <v>926.2736972002915</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>540.4854446020472</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>129.4995398124397</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>118.4674936978402</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609168</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136263</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520485</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794322</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450751</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180637</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180637</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.836054204825</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387296</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4911,16 +4911,16 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.51949026613</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1021.570547268602</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="C10" t="n">
-        <v>852.6343643406955</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="D10" t="n">
-        <v>702.5177249283597</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E10" t="n">
-        <v>554.6046313459666</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F10" t="n">
-        <v>407.7146838480562</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>240.0118472227752</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>93.79466044063295</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279951</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672846</v>
+        <v>1884.185410428832</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242372</v>
+        <v>1662.418794998358</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242372</v>
+        <v>1373.315928124002</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242372</v>
+        <v>1118.631439918115</v>
       </c>
       <c r="W10" t="n">
-        <v>1424.011591242372</v>
+        <v>829.2142698811541</v>
       </c>
       <c r="X10" t="n">
-        <v>1424.011591242372</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="Y10" t="n">
-        <v>1203.219012098842</v>
+        <v>380.4321398396067</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192581</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,43 +5103,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468469</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962605</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143763</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188007</v>
+        <v>513.8536007400755</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427008</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057737</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925705</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490404</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273895</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273895</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273895</v>
+        <v>315.9123021921471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703798</v>
+        <v>315.9123021921471</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969314</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.7084350851586</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>527.7722521572517</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>216.847013829826</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>216.847013829826</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993914</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956953</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058936</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999153983</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192713</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111725</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797183</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703798</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969314</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782895</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.741944003828</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179768</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910802</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570811</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279796</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853354</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580254</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832656</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192609</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="21">
@@ -5814,43 +5814,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797183</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L21" t="n">
-        <v>119.2902967703784</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1025.119922845745</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1652.717886400352</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2204.627616639639</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>198.0274703142549</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,13 +5926,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487568</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5966,61 +5966,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797183</v>
+        <v>150.8995423128877</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797183</v>
+        <v>484.8243144841084</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797183</v>
+        <v>980.1499206998673</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745235</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338367</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>768.5380889459486</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>599.6019060180417</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038238</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179764</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910799</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570807</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279793</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853351</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580251</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832653</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487558</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510499</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854697</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1688.385853854697</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1398.968683817736</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>1170.979132919718</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>950.1865537761884</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400556</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121488</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121488</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138255</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655702954</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6546,22 +6546,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6655,16 +6655,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648808</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611848</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138304</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6707,43 +6707,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,19 +7072,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7658,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>445.698492807609</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518967</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>2.345373895096259e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844822686</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>57.22910392194305</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>106.0841272570835</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.49466557218831</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823017</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>138.4949402405142</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172142</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219417</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993490149</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948234</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944655</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,10 +25087,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25603,13 +25603,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>6.257951202385186</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>18.61858572567992</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>873682.7936927318</v>
+        <v>873682.7936927316</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>859092.8650097403</v>
+        <v>859092.8650097405</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>859092.8650097402</v>
+        <v>859092.8650097405</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>859092.8650097402</v>
+        <v>859092.8650097403</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>859092.8650097405</v>
+        <v>859092.8650097403</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>859092.8650097405</v>
+        <v>859092.8650097402</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>859092.8650097403</v>
+        <v>859092.86500974</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>859092.8650097405</v>
+        <v>859092.8650097402</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>859092.8650097406</v>
+        <v>859092.8650097405</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>859092.8650097403</v>
+        <v>859092.8650097405</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830049</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830042</v>
+      </c>
+      <c r="J2" t="n">
         <v>565002.6197830043</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="L2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="M2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="G2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830046</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.469155386075727e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,28 +26381,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5.223048447078327e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972768</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.755561243044213e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316948</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316962</v>
+        <v>91573.95495316936</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316955</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181825</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181804</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181803</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181801</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181821</v>
+        <v>12386.92018181798</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181798</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181798</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="M4" t="n">
         <v>12386.92018181813</v>
@@ -26470,19 +26470,19 @@
         <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-953523.4023371568</v>
       </c>
       <c r="C6" t="n">
-        <v>375221.3433904367</v>
+        <v>375221.3433904359</v>
       </c>
       <c r="D6" t="n">
-        <v>375221.3433904354</v>
+        <v>375221.3433904358</v>
       </c>
       <c r="E6" t="n">
-        <v>126080.7079699238</v>
+        <v>126045.9700444882</v>
       </c>
       <c r="F6" t="n">
-        <v>451493.1697772793</v>
+        <v>451458.4318518435</v>
       </c>
       <c r="G6" t="n">
-        <v>451493.1697772791</v>
+        <v>451458.4318518437</v>
       </c>
       <c r="H6" t="n">
-        <v>451493.1697772788</v>
+        <v>451458.431851844</v>
       </c>
       <c r="I6" t="n">
-        <v>451493.1697772797</v>
+        <v>451458.4318518434</v>
       </c>
       <c r="J6" t="n">
-        <v>233961.9673800017</v>
+        <v>233927.2294545667</v>
       </c>
       <c r="K6" t="n">
-        <v>451493.1697772793</v>
+        <v>451458.4318518435</v>
       </c>
       <c r="L6" t="n">
-        <v>451493.1697772792</v>
+        <v>451458.4318518437</v>
       </c>
       <c r="M6" t="n">
-        <v>366438.1418417676</v>
+        <v>366403.4039163315</v>
       </c>
       <c r="N6" t="n">
-        <v>451493.1697772792</v>
+        <v>451458.4318518435</v>
       </c>
       <c r="O6" t="n">
-        <v>451493.1697772794</v>
+        <v>451458.4318518435</v>
       </c>
       <c r="P6" t="n">
-        <v>451493.1697772792</v>
+        <v>451458.4318518436</v>
       </c>
     </row>
   </sheetData>
@@ -26744,13 +26744,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022921</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022921</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26963,40 +26963,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483759</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483754</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>6.821210263296962e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022915</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2767095024436</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>240.1912326468625</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>116.8776405219252</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>60.3247588231919</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>26.19303062659871</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>12.66894511512555</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>101.0155669718947</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983813</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004739</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>109.767784150625</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>226.4291713029145</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>284.7488706672463</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>69.34270184147303</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>147.0909790483775</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-3.348081657766396e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>2.701199264265597e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>3.393552105990239e-12</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28551,7 +28551,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-5.25812187936948e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-4.752563035317157e-12</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.410600706528017e-14</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29220,7 +29220,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-1.071940246679952e-11</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29496,7 +29496,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>-2.43016179104428e-12</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -29727,7 +29727,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>-2.41523520199929e-12</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003807</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781687</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970247</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098818</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>734.2678383622656</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565776</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>362.1804684129198</v>
       </c>
       <c r="L15" t="n">
-        <v>162.5000833330467</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067244</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338216</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862118</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437241</v>
+        <v>454.5879800486389</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485289</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162568</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,31 +32552,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>448.9178583921309</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716321</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214697</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.410447117911</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,7 +33044,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,7 +33503,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33661,10 +33661,10 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>172.8142548092792</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>233.3139244897919</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,19 +34448,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34469,16 +34469,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597696</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306614</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226396</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789354</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>592.1338044402472</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121332</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774872</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>224.3390294385608</v>
       </c>
       <c r="L15" t="n">
-        <v>23.94570355317255</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236318484</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193513</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924725</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394741</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992796</v>
+        <v>311.9917356041944</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625074</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326294718</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462697</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394604</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>314.9434509778006</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>57.65947400496539</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394708</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096243</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,7 +36692,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37309,10 +37309,10 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>94.75954470991771</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38117,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
